--- a/STUDIO/org.openl.rules.test/test-resources/functionality/Strings_like.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/Strings_like.xlsx
@@ -160,13 +160,13 @@
     <t>+##(###) ###-##-##</t>
   </si>
   <si>
-    <t>?+\@?+.?+</t>
-  </si>
-  <si>
-    <t>*\@*.*</t>
-  </si>
-  <si>
-    <t>@+\@@+.@+</t>
+    <t>@+[@]@+.@+</t>
+  </si>
+  <si>
+    <t>?+[@]?+.?+</t>
+  </si>
+  <si>
+    <t>*[@]*.*</t>
   </si>
 </sst>
 </file>
@@ -573,7 +573,7 @@
   <dimension ref="B3:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -749,7 +749,7 @@
         <v>26</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -760,7 +760,7 @@
         <v>27</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -768,21 +768,21 @@
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
@@ -790,10 +790,10 @@
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E26" t="b">
         <v>1</v>
@@ -801,21 +801,21 @@
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
@@ -823,10 +823,10 @@
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E29" t="b">
         <v>1</v>
@@ -834,10 +834,10 @@
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E30" t="b">
         <v>1</v>
@@ -845,10 +845,10 @@
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E31" t="b">
         <v>1</v>
@@ -856,10 +856,10 @@
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E32" t="b">
         <v>1</v>
@@ -867,10 +867,10 @@
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E33" t="b">
         <v>1</v>
@@ -878,10 +878,10 @@
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E34" t="b">
         <v>1</v>
@@ -889,10 +889,10 @@
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E35" t="b">
         <v>1</v>
@@ -900,10 +900,10 @@
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E36" t="b">
         <v>1</v>
@@ -911,10 +911,10 @@
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C37" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E37" t="b">
         <v>1</v>
@@ -922,10 +922,10 @@
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E38" t="b">
         <v>1</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E39" t="b">
         <v>1</v>
@@ -944,10 +944,10 @@
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E40" t="b">
         <v>1</v>
@@ -955,10 +955,10 @@
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E41" t="b">
         <v>1</v>

--- a/STUDIO/org.openl.rules.test/test-resources/functionality/Strings_like.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/Strings_like.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="127">
   <si>
     <t>str</t>
   </si>
@@ -167,16 +167,257 @@
   </si>
   <si>
     <t>*[@]*.*</t>
+  </si>
+  <si>
+    <t>Spreadsheet SpreadsheetResult mySpr()</t>
+  </si>
+  <si>
+    <t>Test mySpr mySprTest</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>_res_.$Value$Step1</t>
+  </si>
+  <si>
+    <t>Step1</t>
+  </si>
+  <si>
+    <t>=like("aaa","bbb")</t>
+  </si>
+  <si>
+    <t>_res_.$Value$Step2</t>
+  </si>
+  <si>
+    <t>Step2</t>
+  </si>
+  <si>
+    <t>=like("555","[1-5][4-6][5-9]")</t>
+  </si>
+  <si>
+    <t>_res_.$Value$Step3</t>
+  </si>
+  <si>
+    <t>Step3</t>
+  </si>
+  <si>
+    <t>=like("5-5","[1-5][-4-6][5-9]")</t>
+  </si>
+  <si>
+    <t>_res_.$Value$Step4</t>
+  </si>
+  <si>
+    <t>Step4</t>
+  </si>
+  <si>
+    <t>=like("5-6","[1-5][-4-6][!5-9]")</t>
+  </si>
+  <si>
+    <t>_res_.$Value$Step5</t>
+  </si>
+  <si>
+    <t>Step5</t>
+  </si>
+  <si>
+    <t>=like("5-6","[!][-4-6][5-9]")</t>
+  </si>
+  <si>
+    <t>_res_.$Value$Step6</t>
+  </si>
+  <si>
+    <t>Step6</t>
+  </si>
+  <si>
+    <t>=like("!-6","[1-5!][-4-6][5-9]")</t>
+  </si>
+  <si>
+    <t>_res_.$Value$Step7</t>
+  </si>
+  <si>
+    <t>Step7</t>
+  </si>
+  <si>
+    <t>=like("!-6","[!!][-4-6][5-9]")</t>
+  </si>
+  <si>
+    <t>_res_.$Value$Step8</t>
+  </si>
+  <si>
+    <t>Step8</t>
+  </si>
+  <si>
+    <t>=like("!-6","[!][-4-6][5-9]")</t>
+  </si>
+  <si>
+    <t>_res_.$Value$Step9</t>
+  </si>
+  <si>
+    <t>Step9</t>
+  </si>
+  <si>
+    <t>=like("aaa+aaaa","*[+]*")</t>
+  </si>
+  <si>
+    <t>_res_.$Value$Step10</t>
+  </si>
+  <si>
+    <t>Step10</t>
+  </si>
+  <si>
+    <t>=like("aaa@?@?@aaaa","*[@][?]*")</t>
+  </si>
+  <si>
+    <t>_res_.$Value$Step11</t>
+  </si>
+  <si>
+    <t>Step11</t>
+  </si>
+  <si>
+    <t>=like("aaa#****aaaa","*[#][*]*")</t>
+  </si>
+  <si>
+    <t>_res_.$Value$Step12</t>
+  </si>
+  <si>
+    <t>Step12</t>
+  </si>
+  <si>
+    <t>=like("aaa?@aaaa","*[@][?]*")</t>
+  </si>
+  <si>
+    <t>_res_.$Value$Step13</t>
+  </si>
+  <si>
+    <t>Step13</t>
+  </si>
+  <si>
+    <t>=like("7blalblabla7","#[bla]+#")</t>
+  </si>
+  <si>
+    <t>_res_.$Value$Step14</t>
+  </si>
+  <si>
+    <t>Step14</t>
+  </si>
+  <si>
+    <t>=like("7blalblabla7","#[bla]#")</t>
+  </si>
+  <si>
+    <t>_res_.$Value$Step15</t>
+  </si>
+  <si>
+    <t>Step15</t>
+  </si>
+  <si>
+    <t>=like("ab","[a-b][b-c]")</t>
+  </si>
+  <si>
+    <t>_res_.$Value$Step16</t>
+  </si>
+  <si>
+    <t>Step16</t>
+  </si>
+  <si>
+    <t>=like("cb","[a-b][b-c]")</t>
+  </si>
+  <si>
+    <t>_res_.$Value$Step17</t>
+  </si>
+  <si>
+    <t>Step17</t>
+  </si>
+  <si>
+    <t>=like("cb","[!a-b][b-c]")</t>
+  </si>
+  <si>
+    <t>_res_.$Value$Step18</t>
+  </si>
+  <si>
+    <t>Step18</t>
+  </si>
+  <si>
+    <t>=like("b","@")</t>
+  </si>
+  <si>
+    <t>_res_.$Value$Step19</t>
+  </si>
+  <si>
+    <t>Step19</t>
+  </si>
+  <si>
+    <t>=like("!@#$%^&amp;*()&lt;&gt;?:`{}{","*@*")</t>
+  </si>
+  <si>
+    <t>_res_.$Value$Step20</t>
+  </si>
+  <si>
+    <t>Step20</t>
+  </si>
+  <si>
+    <t>=like("7","#")</t>
+  </si>
+  <si>
+    <t>_res_.$Value$Step21</t>
+  </si>
+  <si>
+    <t>Step21</t>
+  </si>
+  <si>
+    <t>=like("!@#$%^&amp;*()&lt;&gt;?:`{}{","*#*")</t>
+  </si>
+  <si>
+    <t>_res_.$Value$Step22</t>
+  </si>
+  <si>
+    <t>Step22</t>
+  </si>
+  <si>
+    <t>=like("!@#$%^&amp;*()&lt;&gt;?:`{}{","*")</t>
+  </si>
+  <si>
+    <t>_res_.$Value$Step23</t>
+  </si>
+  <si>
+    <t>Step23</t>
+  </si>
+  <si>
+    <t>=like("1a$","?")</t>
+  </si>
+  <si>
+    <t>Step24</t>
+  </si>
+  <si>
+    <t>=like("1a$","???")</t>
+  </si>
+  <si>
+    <t>_res_.$Value$Step24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -187,7 +428,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -195,28 +436,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -570,32 +866,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E64"/>
+  <dimension ref="B3:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="N59" sqref="N59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
@@ -865,7 +1162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>16</v>
       </c>
@@ -876,7 +1173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>35</v>
       </c>
@@ -887,7 +1184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>37</v>
       </c>
@@ -898,7 +1195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
         <v>38</v>
       </c>
@@ -909,7 +1206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C37" s="1" t="s">
         <v>39</v>
       </c>
@@ -920,7 +1217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>39</v>
       </c>
@@ -931,7 +1228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>39</v>
       </c>
@@ -942,7 +1239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>41</v>
       </c>
@@ -953,7 +1250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>42</v>
       </c>
@@ -964,7 +1261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>46</v>
       </c>
@@ -975,98 +1272,549 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
+    <row r="45" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C45" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+    </row>
+    <row r="46" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M46" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C47" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C48" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C49" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C50" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C51" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C52" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C53" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C54" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C55" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C56" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C57" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C58" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C59" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C60" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C61" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C62" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C63" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C64" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="3:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="C65" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="3:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="C66" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="3:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="C67" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="3:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="C68" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="3:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="C69" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="3:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="C70" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="K45:M45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
